--- a/biology/Botanique/Baumwipfelpfad_Schwarzwald/Baumwipfelpfad_Schwarzwald.xlsx
+++ b/biology/Botanique/Baumwipfelpfad_Schwarzwald/Baumwipfelpfad_Schwarzwald.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Baumwipfelpfad Schwarzwald (en français, littéralement, chemin dans la canopée de la Forêt-Noire) est un chemin suspendu construit en 2014. Situé dans la commune de Bad Wildbad, à peu près à mi-chemin de Strasbourg et de Stuttgart, il mesure 1 250 mètres de longueur, surplombe le sol d'une hauteur variant entre quatre et vingt mètres, et se termine par une tour d'observation de 38,5 mètres de hauteur.
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chemin mesure 1 250 mètres de longueur[1] et est situé environ à 750 mètres d'altitude. La pente maximale de la rampe est de 6%[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chemin mesure 1 250 mètres de longueur et est situé environ à 750 mètres d'altitude. La pente maximale de la rampe est de 6%.
 Le parcours est à la fois un sentier d'interprétation doté de nombreux panneaux explicatifs sur l'écosystème forestier et un parcours acrobatique en hauteur jalonné d'éléments ludiques.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sentier et la tour sont l'œuvre de la société Erlebnis Akademie AG. C'est l'architecte Joseph Stugger qui en est le concepteur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sentier et la tour sont l'œuvre de la société Erlebnis Akademie AG. C'est l'architecte Joseph Stugger qui en est le concepteur.
 </t>
         </is>
       </c>
